--- a/TRenesas_MCU_115H/IC_stock.xlsx
+++ b/TRenesas_MCU_115H/IC_stock.xlsx
@@ -1,46 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/TaskModel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72654562-9F6C-B24A-9C10-B84720FADFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IC_stock" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +54,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,8 +415,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
@@ -370,7 +428,5336 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>R5F563NACDFB#V0</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>深圳市睿扬信电子有限公司</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>UPD70F3368GJ(A)-UEN-A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>深圳市天源科电子有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UPD70F3368GJ(A)-UEN-A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>芯特尔（深圳）半导体电子有限公司</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UPD70F3368GJ(A)-UEN-A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>深圳市金华雄伟电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UPD70F3368GJ(A)-UEN-A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>深圳市永智通电子有限公司</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UPD70F3368GJ(A)-UEN-A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>深圳市长兴威电子有限公司</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UPD70F3368GJ(A)-UEN-A</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>联合芯半导体科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UPD70F3368GJ(A)-UEN-A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>深圳市科丰达电子有限公司</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2403</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>R5F100LGAFB#V0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>深圳市睿扬信电子有限公司</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>R5F104LHAFA#V0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>深圳市永晁科技有限公司</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>R7S921040VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>深圳市启穗电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>R7S921040VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>深圳市百域芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>R5F5631BCDFB#V0</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>深圳市巨象软件有限公司</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>R5F5631BCDFB#V0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>深圳市德源佳诚电子有限公司</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>R5F5631BCDFB#V0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>深圳市睿力讯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R7F7010244AFP#KA2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>深圳市重源电子有限公司</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R7F7010244AFP#KA2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>深圳市美信美科技有限公司</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R7F7010244AFP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>深圳市天天原电子有限公司</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>R7F7010244AFP#KA2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>优品元科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>R7F7010244AFP</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>深圳市瑞智芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>HotSell</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1440</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>R7F7010244AFP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>深圳市英飞翔微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2786</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R7F7010244AFP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>深圳市鑫翎达科技有限公司</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>R5F101FDAFP#10</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>多源半导体科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>R5F101FDAFP#10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>深圳致诚科技电子有限公司</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>R5F51118ADFL#3A</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RENESASRL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>R5F51118ADFL#3A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>深圳市锦泰世纪电子有限公司</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R5F10BLGKFB#H5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>深圳市泽晟半导体科技有限公司</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>R5F10BLGKFB#H5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>深圳市正信芯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>R5F10BLGKFB#H5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>深圳市云科盛科技有限公司</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>R5F100MLAFA#10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>深圳市潍森特科技有限公司</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>R5F100MLAFA#10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>深圳市际联科技有限公司</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>91520</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>R5F100MLAFA#10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>深圳市均源微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>19460</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R5F100MLAFA#10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>深圳市成昊嘉业科技有限公司</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>R5F100MLAFA#10</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>深圳市潍森特科技有限公司</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>R7F701205EAFP#BC0</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>深圳市博润通科技有限公司</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>R5F100JLAFA#V0</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>深圳市三六八科技有限公司</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>R5F5631FDDFP#V0</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>深圳市鸿鑫远电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>R5F5631FDDFP#V0</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>深圳市乐腾网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>R5F5631FDDFP#V0</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>深圳市辉联胜贸易有限公司</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>R5F5631FDDFP#V0</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>深圳市中源汇电子有限公司</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>R5F565NEDDFC#30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>深圳市欧克芯城科技有限公司</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>R5F562N8BDFP#V0</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RENESAS/支持实单</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>深圳市安芯购电子有限公司</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>R5F562N8BDFP#V0</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>深圳市乐腾网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>R5F562N8BDFP#V0</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>深圳市裕和恒胜电子有限公司</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>R5F562N8BDFP#V0</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>深圳市安芯购电子有限公司</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>R5F562N8BDFP#V0</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>深圳市德迅威科技有限公司</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>R5F562N8BDFP#V0</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>深圳市裕和恒胜电子有限公司</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>R5F10BGEKFB#X5</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>深圳市品佳诚科技有限公司</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>R5F10BGEKFB#X5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>深圳市李想电子有限公司</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>R5F11BGCAFB#50</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>成芯科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>R5F11BGCAFB#50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>深圳市荣盛万鑫科技有限公司</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>R7S921051VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>深圳市百域芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>R5F104GJAFB#30</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>深圳市华尔通科技有限公司</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2457</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>R5F104GJAFB#30</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>深圳市昇源芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>R5F104GJAFB#30</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>深圳市振东芯电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>R5F104GJAFB#30</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>深圳市秦芯电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>R7F7010103AFP</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>深圳市格莱拓科技有限公司</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>R5F10RGCGFB#30</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RENESASRL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>R5F100LJAFB#V0</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>深圳市鹏腾电子发展有限公司</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>R5F10PLGCLFB#55</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>LFQFP64</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>深圳质行科技有限公司</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>HotSell</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>R5F563TEADFP#V0</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>深圳市鸿链芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>R5F10367ASP#X5</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>深圳市伟创讯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>R5F10367ASP#X5</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>深圳市伟创讯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>R5F5210BBDFP#10</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>深圳市乐腾网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>R5F5210BBDFP#10</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>深圳市乐腾网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>R7F7016863AFP-C#BA1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>深圳市芯燎原科技有限公司</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>33118</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>R7F7016863AFP-C#BA1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鸿盛利科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>R7F7016863AFP-C#BA1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>深圳市芯燎原科技有限公司</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>12800</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>R7F7015863AFP-C</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>深圳市越泰佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>R7F7015863AFP-C</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>深圳市盛泰芯源科技有限公司</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>R5F5631ECDBG#U0</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>深圳市中源汇电子有限公司</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>R5F100AEASP#V0</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>RENENSAS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>深圳市华凯诚科技有限公司</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>深圳市誉辉天成电子有限公司</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>11200</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>多源半导体科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>10240</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>深圳市国彬电子有限公司</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>深圳市东港盛电子技术有限公司</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>3316</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>深圳市金信泰微科技有限公司</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>5120</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>深圳市恒芯伟创电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>20589</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>RENESAS/原包装</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>深圳市金达微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>20589</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>R7FA2E1A72DFM#AA0</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>深圳市睿毅拓展科技有限公司</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>R5F563NECDBG#U0</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>深圳市裕昌伟业科技有限公司</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>R5F10268GSP#55</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Renesas/瑞萨</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>深圳市捷科微电控股有限公司</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>R5F100AAGSP#30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>深圳市科芯源微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>R5F10BMGLFB#H5</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>深圳市硅源微电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>4760</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>R5F10BMGLFB#H5</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>深圳市杰宝伟业科技有限公司</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>R5F10BMGLFB#H5</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>深圳市锦泰诚业电子有限公司</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>R5F10RLCAFB#30</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>深圳市滨海盛都科技有限公司</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>R7F7010163AFP#KA4</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>深圳市凯讯诚电子有限公司</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>R7F7010163AFP#AA4</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>芯美美（深圳）科技有限公司</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>R7F7010163AFP</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>正品芯城（深圳）科技有限公司</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>深圳市盈丰微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>15491</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>RENESAS/假一赔</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>深圳市诚鑫微科技有限公司</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>深圳长华高科有限公司</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>3237</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>深圳市科芯源微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>4150</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>深圳市新程芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>深圳市盈丰微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>15260</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>深圳市华美欧电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>深圳市鑫炜纳电子有限公司</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>深圳市佳斯泰科技有限公司</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>RENESAS实单找我</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>深圳市雄盛森发电子有限公司</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>深圳市科芯源微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>4150</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>R5F51115ADFM#3A</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Renesas(瑞萨)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>深圳市金凯嘉电子有限公司</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>HotSell</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>R5F104BFGFP#30</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>RENESASRL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>深圳市卓信美电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>深圳市淘芯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>深圳市铭微讯电子有限公司</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>R5F100MGAFA#30</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RENENSA特价</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>深圳市柒舟芯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>R5F104PGAFB#10</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RENESAS/瑞萨</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>深圳市巨象软件有限公司</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>5040</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>R5F104PGAFB#10</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>深圳市睿力讯科技有限公司</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>R5F5210ABDLK#U0</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>深圳市卓恒洋科技有限公司</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>R5F100FCGFP#30</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>RENESASRL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>深圳市荣利万佳电子有限公司</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>R7S910036CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>深圳市凝聚力电子有限公司</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>notSSCP</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>SpotRanking</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>R7S910036CBG#AC0</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Renesas/瑞萨</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>深圳市捷科微电控股有限公司</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>